--- a/mcmaster_excel/Titanium_Pan_Head_Phillips_Screws.xlsx
+++ b/mcmaster_excel/Titanium_Pan_Head_Phillips_Screws.xlsx
@@ -434,78 +434,90 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Lg.</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Threading</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>HeadDia.</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Head Ht.</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>DriveSize</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>TensileStrength, psi</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Specifications Met</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.Qty.</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr"/>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Pkg.</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>thread_size</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>material_surface</t>
-        </is>
+      <c r="A1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Grade 2 Titanium</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
+          <t>Lg.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Threading</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>HeadDia.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Head Ht.</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>DriveSize</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>TensileStrength, psi</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Specifications Met</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Pkg.Qty.</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Pkg.</t>
+        </is>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
     </row>
@@ -565,7 +577,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -623,7 +639,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -681,7 +701,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -739,7 +763,11 @@
           <t>4-40</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr"/>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -797,7 +825,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr"/>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -855,7 +887,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr"/>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -913,7 +949,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr"/>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -971,7 +1011,11 @@
           <t>6-32</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1029,7 +1073,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1087,7 +1135,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr"/>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1145,7 +1197,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr"/>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1203,7 +1259,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr"/>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1261,7 +1321,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr"/>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1319,7 +1383,11 @@
           <t>8-32</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr"/>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1377,7 +1445,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr"/>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1435,7 +1507,11 @@
           <t>10-24</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1493,7 +1569,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1551,7 +1631,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1609,7 +1693,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1667,7 +1755,11 @@
           <t>10-32</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr"/>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1725,7 +1817,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1783,7 +1879,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1841,7 +1941,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1899,7 +2003,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr"/>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1957,7 +2065,11 @@
           <t>1/4"-20</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Grade 2 Titanium</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
